--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.27015933333332</v>
+        <v>11.80898833333333</v>
       </c>
       <c r="H2">
-        <v>117.810478</v>
+        <v>35.426965</v>
       </c>
       <c r="I2">
-        <v>0.2257020976862494</v>
+        <v>0.08059095716837197</v>
       </c>
       <c r="J2">
-        <v>0.2257020976862494</v>
+        <v>0.08059095716837197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N2">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O2">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P2">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q2">
-        <v>4063.544912391106</v>
+        <v>1650.05220271619</v>
       </c>
       <c r="R2">
-        <v>36571.90421151996</v>
+        <v>14850.46982444571</v>
       </c>
       <c r="S2">
-        <v>0.1981179906975175</v>
+        <v>0.07305808325921322</v>
       </c>
       <c r="T2">
-        <v>0.1981179906975174</v>
+        <v>0.07305808325921322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.27015933333332</v>
+        <v>11.80898833333333</v>
       </c>
       <c r="H3">
-        <v>117.810478</v>
+        <v>35.426965</v>
       </c>
       <c r="I3">
-        <v>0.2257020976862494</v>
+        <v>0.08059095716837197</v>
       </c>
       <c r="J3">
-        <v>0.2257020976862494</v>
+        <v>0.08059095716837197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.479739</v>
       </c>
       <c r="O3">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P3">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q3">
-        <v>32.45991521169356</v>
+        <v>9.761069640237224</v>
       </c>
       <c r="R3">
-        <v>292.139236905242</v>
+        <v>87.84962676213502</v>
       </c>
       <c r="S3">
-        <v>0.001582582035784216</v>
+        <v>0.0004321833195953058</v>
       </c>
       <c r="T3">
-        <v>0.001582582035784215</v>
+        <v>0.0004321833195953058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.27015933333332</v>
+        <v>11.80898833333333</v>
       </c>
       <c r="H4">
-        <v>117.810478</v>
+        <v>35.426965</v>
       </c>
       <c r="I4">
-        <v>0.2257020976862494</v>
+        <v>0.08059095716837197</v>
       </c>
       <c r="J4">
-        <v>0.2257020976862494</v>
+        <v>0.08059095716837197</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>40.741645</v>
       </c>
       <c r="O4">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P4">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q4">
-        <v>533.3102968840343</v>
+        <v>160.3725368286028</v>
       </c>
       <c r="R4">
-        <v>4799.792671956308</v>
+        <v>1443.352831457425</v>
       </c>
       <c r="S4">
-        <v>0.02600152495294779</v>
+        <v>0.007100690589563453</v>
       </c>
       <c r="T4">
-        <v>0.02600152495294778</v>
+        <v>0.007100690589563453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>357.907432</v>
       </c>
       <c r="I5">
-        <v>0.6856814398113102</v>
+        <v>0.8141849724511824</v>
       </c>
       <c r="J5">
-        <v>0.6856814398113101</v>
+        <v>0.8141849724511824</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N5">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O5">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P5">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q5">
-        <v>12345.02184441155</v>
+        <v>16669.95596546571</v>
       </c>
       <c r="R5">
-        <v>111105.1965997039</v>
+        <v>150029.6036891914</v>
       </c>
       <c r="S5">
-        <v>0.6018811101296812</v>
+        <v>0.7380827278359066</v>
       </c>
       <c r="T5">
-        <v>0.6018811101296809</v>
+        <v>0.7380827278359066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>357.907432</v>
       </c>
       <c r="I6">
-        <v>0.6856814398113102</v>
+        <v>0.8141849724511824</v>
       </c>
       <c r="J6">
-        <v>0.6856814398113101</v>
+        <v>0.8141849724511824</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.479739</v>
       </c>
       <c r="O6">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P6">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q6">
-        <v>98.61300194669424</v>
+        <v>98.61300194669425</v>
       </c>
       <c r="R6">
-        <v>887.517017520248</v>
+        <v>887.5170175202481</v>
       </c>
       <c r="S6">
-        <v>0.004807873475879292</v>
+        <v>0.004366211502159193</v>
       </c>
       <c r="T6">
-        <v>0.00480787347587929</v>
+        <v>0.004366211502159193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>357.907432</v>
       </c>
       <c r="I7">
-        <v>0.6856814398113102</v>
+        <v>0.8141849724511824</v>
       </c>
       <c r="J7">
-        <v>0.6856814398113101</v>
+        <v>0.8141849724511824</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>40.741645</v>
       </c>
       <c r="O7">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P7">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q7">
         <v>1620.193059711738</v>
@@ -880,10 +880,10 @@
         <v>14581.73753740564</v>
       </c>
       <c r="S7">
-        <v>0.07899245620574993</v>
+        <v>0.07173603311311656</v>
       </c>
       <c r="T7">
-        <v>0.07899245620574991</v>
+        <v>0.07173603311311656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>46.255431</v>
       </c>
       <c r="I8">
-        <v>0.08861646250244035</v>
+        <v>0.1052240703804457</v>
       </c>
       <c r="J8">
-        <v>0.08861646250244033</v>
+        <v>0.1052240703804457</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N8">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O8">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P8">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q8">
-        <v>1595.452497107328</v>
+        <v>2154.400632657546</v>
       </c>
       <c r="R8">
-        <v>14359.07247396595</v>
+        <v>19389.60569391791</v>
       </c>
       <c r="S8">
-        <v>0.07778623093752038</v>
+        <v>0.09538872802648468</v>
       </c>
       <c r="T8">
-        <v>0.07778623093752035</v>
+        <v>0.09538872802648467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>46.255431</v>
       </c>
       <c r="I9">
-        <v>0.08861646250244035</v>
+        <v>0.1052240703804457</v>
       </c>
       <c r="J9">
-        <v>0.08861646250244033</v>
+        <v>0.1052240703804457</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.479739</v>
       </c>
       <c r="O9">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P9">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q9">
         <v>12.74459957916767</v>
@@ -1004,10 +1004,10 @@
         <v>114.701396212509</v>
       </c>
       <c r="S9">
-        <v>0.000621362508673094</v>
+        <v>0.0005642827636770921</v>
       </c>
       <c r="T9">
-        <v>0.0006213625086730938</v>
+        <v>0.0005642827636770921</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>46.255431</v>
       </c>
       <c r="I10">
-        <v>0.08861646250244035</v>
+        <v>0.1052240703804457</v>
       </c>
       <c r="J10">
-        <v>0.08861646250244033</v>
+        <v>0.1052240703804457</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>40.741645</v>
       </c>
       <c r="O10">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P10">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q10">
         <v>209.3913721248883</v>
@@ -1066,10 +1066,10 @@
         <v>1884.522349123995</v>
       </c>
       <c r="S10">
-        <v>0.01020886905624689</v>
+        <v>0.009271059590283888</v>
       </c>
       <c r="T10">
-        <v>0.01020886905624689</v>
+        <v>0.009271059590283886</v>
       </c>
     </row>
   </sheetData>
